--- a/xlsx/产业政策_intext.xlsx
+++ b/xlsx/产业政策_intext.xlsx
@@ -29,13 +29,13 @@
     <t>中国汽车制造业</t>
   </si>
   <si>
-    <t>政策_政策_貨幣政策_产业政策</t>
+    <t>政策_政策_货币政策_产业政策</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
